--- a/M16 Project Plan.xlsx
+++ b/M16 Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lane\MI6\2021FA_SGD285_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795648E-3D20-4E26-BCF6-1B81F4F73A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A7B333-DFE3-41B9-88E1-4C6B879B431D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
